--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Angptl1-Tek.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Angptl1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +95,6 @@
   </si>
   <si>
     <t>Tek</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>109.736036792707</v>
+        <v>2.118943333333334</v>
       </c>
       <c r="H2">
-        <v>109.736036792707</v>
+        <v>6.35683</v>
       </c>
       <c r="I2">
-        <v>0.996038722525166</v>
+        <v>0.01863691494020292</v>
       </c>
       <c r="J2">
-        <v>0.996038722525166</v>
+        <v>0.01863691494020292</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.70725526385441</v>
+        <v>64.74848166666668</v>
       </c>
       <c r="N2">
-        <v>64.70725526385441</v>
+        <v>194.245445</v>
       </c>
       <c r="O2">
-        <v>0.9531014902815595</v>
+        <v>0.9402357523751964</v>
       </c>
       <c r="P2">
-        <v>0.9531014902815595</v>
+        <v>0.9402357523751964</v>
       </c>
       <c r="Q2">
-        <v>7100.717744389411</v>
+        <v>137.1983635710389</v>
       </c>
       <c r="R2">
-        <v>7100.717744389411</v>
+        <v>1234.78527213935</v>
       </c>
       <c r="S2">
-        <v>0.9493259908168765</v>
+        <v>0.01752309374075423</v>
       </c>
       <c r="T2">
-        <v>0.9493259908168765</v>
+        <v>0.01752309374075423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,185 +587,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>109.736036792707</v>
+        <v>2.118943333333334</v>
       </c>
       <c r="H3">
-        <v>109.736036792707</v>
+        <v>6.35683</v>
       </c>
       <c r="I3">
-        <v>0.996038722525166</v>
+        <v>0.01863691494020292</v>
       </c>
       <c r="J3">
-        <v>0.996038722525166</v>
+        <v>0.01863691494020292</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.18399863056452</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N3">
-        <v>3.18399863056452</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O3">
-        <v>0.04689850971844054</v>
+        <v>0.04731972144341096</v>
       </c>
       <c r="P3">
-        <v>0.04689850971844054</v>
+        <v>0.04731972144341097</v>
       </c>
       <c r="Q3">
-        <v>349.3993908715569</v>
+        <v>6.904851607985556</v>
       </c>
       <c r="R3">
-        <v>349.3993908715569</v>
+        <v>62.14366447187</v>
       </c>
       <c r="S3">
-        <v>0.0467127317082896</v>
+        <v>0.0008818936235349462</v>
       </c>
       <c r="T3">
-        <v>0.0467127317082896</v>
+        <v>0.0008818936235349462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.436423686041506</v>
+        <v>2.118943333333334</v>
       </c>
       <c r="H4">
-        <v>0.436423686041506</v>
+        <v>6.35683</v>
       </c>
       <c r="I4">
-        <v>0.003961277474834004</v>
+        <v>0.01863691494020292</v>
       </c>
       <c r="J4">
-        <v>0.003961277474834004</v>
+        <v>0.01863691494020292</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>64.70725526385441</v>
+        <v>0.023043</v>
       </c>
       <c r="N4">
-        <v>64.70725526385441</v>
+        <v>0.069129</v>
       </c>
       <c r="O4">
-        <v>0.9531014902815595</v>
+        <v>0.0003346156061777662</v>
       </c>
       <c r="P4">
-        <v>0.9531014902815595</v>
+        <v>0.0003346156061777662</v>
       </c>
       <c r="Q4">
-        <v>28.23977885587998</v>
+        <v>0.04882681123</v>
       </c>
       <c r="R4">
-        <v>28.23977885587998</v>
+        <v>0.43944130107</v>
       </c>
       <c r="S4">
-        <v>0.003775499464683062</v>
+        <v>6.236202589999466E-06</v>
       </c>
       <c r="T4">
-        <v>0.003775499464683062</v>
+        <v>6.236202589999466E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>2.118943333333334</v>
+      </c>
+      <c r="H5">
+        <v>6.35683</v>
+      </c>
+      <c r="I5">
+        <v>0.01863691494020292</v>
+      </c>
+      <c r="J5">
+        <v>0.01863691494020292</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.04108233333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.123247</v>
+      </c>
+      <c r="O5">
+        <v>0.0005965711874118119</v>
+      </c>
+      <c r="P5">
+        <v>0.000596571187411812</v>
+      </c>
+      <c r="Q5">
+        <v>0.08705113633444446</v>
+      </c>
+      <c r="R5">
+        <v>0.7834602270100001</v>
+      </c>
+      <c r="S5">
+        <v>1.111824647556979E-05</v>
+      </c>
+      <c r="T5">
+        <v>1.111824647556979E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>2.118943333333334</v>
+      </c>
+      <c r="H6">
+        <v>6.35683</v>
+      </c>
+      <c r="I6">
+        <v>0.01863691494020292</v>
+      </c>
+      <c r="J6">
+        <v>0.01863691494020292</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.7928556666666666</v>
+      </c>
+      <c r="N6">
+        <v>2.378567</v>
+      </c>
+      <c r="O6">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="P6">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="Q6">
+        <v>1.680016229178889</v>
+      </c>
+      <c r="R6">
+        <v>15.12014606261</v>
+      </c>
+      <c r="S6">
+        <v>0.0002145731268481717</v>
+      </c>
+      <c r="T6">
+        <v>0.0002145731268481717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>110.931206</v>
+      </c>
+      <c r="H7">
+        <v>332.793618</v>
+      </c>
+      <c r="I7">
+        <v>0.9756822742323424</v>
+      </c>
+      <c r="J7">
+        <v>0.9756822742323424</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>64.74848166666668</v>
+      </c>
+      <c r="N7">
+        <v>194.245445</v>
+      </c>
+      <c r="O7">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="P7">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="Q7">
+        <v>7182.627157952224</v>
+      </c>
+      <c r="R7">
+        <v>64643.64442157001</v>
+      </c>
+      <c r="S7">
+        <v>0.9173713571919893</v>
+      </c>
+      <c r="T7">
+        <v>0.9173713571919893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>110.931206</v>
+      </c>
+      <c r="H8">
+        <v>332.793618</v>
+      </c>
+      <c r="I8">
+        <v>0.9756822742323424</v>
+      </c>
+      <c r="J8">
+        <v>0.9756822742323424</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.258629666666666</v>
+      </c>
+      <c r="N8">
+        <v>9.775888999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.04731972144341096</v>
+      </c>
+      <c r="P8">
+        <v>0.04731972144341097</v>
+      </c>
+      <c r="Q8">
+        <v>361.4837188307113</v>
+      </c>
+      <c r="R8">
+        <v>3253.353469476402</v>
+      </c>
+      <c r="S8">
+        <v>0.04616901343394815</v>
+      </c>
+      <c r="T8">
+        <v>0.04616901343394816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>110.931206</v>
+      </c>
+      <c r="H9">
+        <v>332.793618</v>
+      </c>
+      <c r="I9">
+        <v>0.9756822742323424</v>
+      </c>
+      <c r="J9">
+        <v>0.9756822742323424</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.023043</v>
+      </c>
+      <c r="N9">
+        <v>0.069129</v>
+      </c>
+      <c r="O9">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="P9">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="Q9">
+        <v>2.556187779857999</v>
+      </c>
+      <c r="R9">
+        <v>23.005690018722</v>
+      </c>
+      <c r="S9">
+        <v>0.0003264785156291567</v>
+      </c>
+      <c r="T9">
+        <v>0.0003264785156291568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>110.931206</v>
+      </c>
+      <c r="H10">
+        <v>332.793618</v>
+      </c>
+      <c r="I10">
+        <v>0.9756822742323424</v>
+      </c>
+      <c r="J10">
+        <v>0.9756822742323424</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.04108233333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.123247</v>
+      </c>
+      <c r="O10">
+        <v>0.0005965711874118119</v>
+      </c>
+      <c r="P10">
+        <v>0.000596571187411812</v>
+      </c>
+      <c r="Q10">
+        <v>4.557312781960666</v>
+      </c>
+      <c r="R10">
+        <v>41.01581503764599</v>
+      </c>
+      <c r="S10">
+        <v>0.0005820639328754457</v>
+      </c>
+      <c r="T10">
+        <v>0.0005820639328754458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>110.931206</v>
+      </c>
+      <c r="H11">
+        <v>332.793618</v>
+      </c>
+      <c r="I11">
+        <v>0.9756822742323424</v>
+      </c>
+      <c r="J11">
+        <v>0.9756822742323424</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.7928556666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.378567</v>
+      </c>
+      <c r="O11">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="P11">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="Q11">
+        <v>87.95243528726732</v>
+      </c>
+      <c r="R11">
+        <v>791.5719175854059</v>
+      </c>
+      <c r="S11">
+        <v>0.0112333611579004</v>
+      </c>
+      <c r="T11">
+        <v>0.0112333611579004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.436423686041506</v>
-      </c>
-      <c r="H5">
-        <v>0.436423686041506</v>
-      </c>
-      <c r="I5">
-        <v>0.003961277474834004</v>
-      </c>
-      <c r="J5">
-        <v>0.003961277474834004</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>3.18399863056452</v>
-      </c>
-      <c r="N5">
-        <v>3.18399863056452</v>
-      </c>
-      <c r="O5">
-        <v>0.04689850971844054</v>
-      </c>
-      <c r="P5">
-        <v>0.04689850971844054</v>
-      </c>
-      <c r="Q5">
-        <v>1.389572418702075</v>
-      </c>
-      <c r="R5">
-        <v>1.389572418702075</v>
-      </c>
-      <c r="S5">
-        <v>0.0001857780101509421</v>
-      </c>
-      <c r="T5">
-        <v>0.0001857780101509421</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.08976033333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.269281</v>
+      </c>
+      <c r="I12">
+        <v>0.0007894763729740738</v>
+      </c>
+      <c r="J12">
+        <v>0.0007894763729740737</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>64.74848166666668</v>
+      </c>
+      <c r="N12">
+        <v>194.245445</v>
+      </c>
+      <c r="O12">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="P12">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="Q12">
+        <v>5.811845297227223</v>
+      </c>
+      <c r="R12">
+        <v>52.306607675045</v>
+      </c>
+      <c r="S12">
+        <v>0.0007422939115257195</v>
+      </c>
+      <c r="T12">
+        <v>0.0007422939115257194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08976033333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.269281</v>
+      </c>
+      <c r="I13">
+        <v>0.0007894763729740738</v>
+      </c>
+      <c r="J13">
+        <v>0.0007894763729740737</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.258629666666666</v>
+      </c>
+      <c r="N13">
+        <v>9.775888999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.04731972144341096</v>
+      </c>
+      <c r="P13">
+        <v>0.04731972144341097</v>
+      </c>
+      <c r="Q13">
+        <v>0.2924956850898888</v>
+      </c>
+      <c r="R13">
+        <v>2.632461165809</v>
+      </c>
+      <c r="S13">
+        <v>3.735780205528759E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.735780205528759E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.08976033333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.269281</v>
+      </c>
+      <c r="I14">
+        <v>0.0007894763729740738</v>
+      </c>
+      <c r="J14">
+        <v>0.0007894763729740737</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.023043</v>
+      </c>
+      <c r="N14">
+        <v>0.069129</v>
+      </c>
+      <c r="O14">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="P14">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="Q14">
+        <v>0.002068347361</v>
+      </c>
+      <c r="R14">
+        <v>0.018615126249</v>
+      </c>
+      <c r="S14">
+        <v>2.641711151057439E-07</v>
+      </c>
+      <c r="T14">
+        <v>2.641711151057439E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.08976033333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.269281</v>
+      </c>
+      <c r="I15">
+        <v>0.0007894763729740738</v>
+      </c>
+      <c r="J15">
+        <v>0.0007894763729740737</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.04108233333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.123247</v>
+      </c>
+      <c r="O15">
+        <v>0.0005965711874118119</v>
+      </c>
+      <c r="P15">
+        <v>0.000596571187411812</v>
+      </c>
+      <c r="Q15">
+        <v>0.003687563934111111</v>
+      </c>
+      <c r="R15">
+        <v>0.033188075407</v>
+      </c>
+      <c r="S15">
+        <v>4.709788572587138E-07</v>
+      </c>
+      <c r="T15">
+        <v>4.709788572587138E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.08976033333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.269281</v>
+      </c>
+      <c r="I16">
+        <v>0.0007894763729740738</v>
+      </c>
+      <c r="J16">
+        <v>0.0007894763729740737</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.7928556666666666</v>
+      </c>
+      <c r="N16">
+        <v>2.378567</v>
+      </c>
+      <c r="O16">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="P16">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="Q16">
+        <v>0.07116698892522222</v>
+      </c>
+      <c r="R16">
+        <v>0.640502900327</v>
+      </c>
+      <c r="S16">
+        <v>9.089509420702223E-06</v>
+      </c>
+      <c r="T16">
+        <v>9.089509420702223E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06529233333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.195877</v>
+      </c>
+      <c r="I17">
+        <v>0.0005742709790480674</v>
+      </c>
+      <c r="J17">
+        <v>0.0005742709790480673</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>64.74848166666668</v>
+      </c>
+      <c r="N17">
+        <v>194.245445</v>
+      </c>
+      <c r="O17">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="P17">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="Q17">
+        <v>4.227579447807223</v>
+      </c>
+      <c r="R17">
+        <v>38.04821503026501</v>
+      </c>
+      <c r="S17">
+        <v>0.0005399501060525003</v>
+      </c>
+      <c r="T17">
+        <v>0.0005399501060525002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06529233333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.195877</v>
+      </c>
+      <c r="I18">
+        <v>0.0005742709790480674</v>
+      </c>
+      <c r="J18">
+        <v>0.0005742709790480673</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.258629666666666</v>
+      </c>
+      <c r="N18">
+        <v>9.775888999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.04731972144341096</v>
+      </c>
+      <c r="P18">
+        <v>0.04731972144341097</v>
+      </c>
+      <c r="Q18">
+        <v>0.2127635344058889</v>
+      </c>
+      <c r="R18">
+        <v>1.914871809653</v>
+      </c>
+      <c r="S18">
+        <v>2.717434276158944E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.717434276158944E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06529233333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.195877</v>
+      </c>
+      <c r="I19">
+        <v>0.0005742709790480674</v>
+      </c>
+      <c r="J19">
+        <v>0.0005742709790480673</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.023043</v>
+      </c>
+      <c r="N19">
+        <v>0.069129</v>
+      </c>
+      <c r="O19">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="P19">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="Q19">
+        <v>0.001504531237</v>
+      </c>
+      <c r="R19">
+        <v>0.013540781133</v>
+      </c>
+      <c r="S19">
+        <v>1.921600317644683E-07</v>
+      </c>
+      <c r="T19">
+        <v>1.921600317644683E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06529233333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.195877</v>
+      </c>
+      <c r="I20">
+        <v>0.0005742709790480674</v>
+      </c>
+      <c r="J20">
+        <v>0.0005742709790480673</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.04108233333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.123247</v>
+      </c>
+      <c r="O20">
+        <v>0.0005965711874118119</v>
+      </c>
+      <c r="P20">
+        <v>0.000596571187411812</v>
+      </c>
+      <c r="Q20">
+        <v>0.002682361402111111</v>
+      </c>
+      <c r="R20">
+        <v>0.024141252619</v>
+      </c>
+      <c r="S20">
+        <v>3.425935198668493E-07</v>
+      </c>
+      <c r="T20">
+        <v>3.425935198668493E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06529233333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.195877</v>
+      </c>
+      <c r="I21">
+        <v>0.0005742709790480674</v>
+      </c>
+      <c r="J21">
+        <v>0.0005742709790480673</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.7928556666666666</v>
+      </c>
+      <c r="N21">
+        <v>2.378567</v>
+      </c>
+      <c r="O21">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="P21">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="Q21">
+        <v>0.05176739647322221</v>
+      </c>
+      <c r="R21">
+        <v>0.465906568259</v>
+      </c>
+      <c r="S21">
+        <v>6.611776682346283E-06</v>
+      </c>
+      <c r="T21">
+        <v>6.611776682346282E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.490833</v>
+      </c>
+      <c r="H22">
+        <v>1.472499</v>
+      </c>
+      <c r="I22">
+        <v>0.004317063475432543</v>
+      </c>
+      <c r="J22">
+        <v>0.004317063475432543</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>64.74848166666668</v>
+      </c>
+      <c r="N22">
+        <v>194.245445</v>
+      </c>
+      <c r="O22">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="P22">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="Q22">
+        <v>31.78069150189501</v>
+      </c>
+      <c r="R22">
+        <v>286.026223517055</v>
+      </c>
+      <c r="S22">
+        <v>0.004059057424874798</v>
+      </c>
+      <c r="T22">
+        <v>0.004059057424874797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.490833</v>
+      </c>
+      <c r="H23">
+        <v>1.472499</v>
+      </c>
+      <c r="I23">
+        <v>0.004317063475432543</v>
+      </c>
+      <c r="J23">
+        <v>0.004317063475432543</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.258629666666666</v>
+      </c>
+      <c r="N23">
+        <v>9.775888999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.04731972144341096</v>
+      </c>
+      <c r="P23">
+        <v>0.04731972144341097</v>
+      </c>
+      <c r="Q23">
+        <v>1.599442975179</v>
+      </c>
+      <c r="R23">
+        <v>14.394986776611</v>
+      </c>
+      <c r="S23">
+        <v>0.0002042822411109916</v>
+      </c>
+      <c r="T23">
+        <v>0.0002042822411109916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.490833</v>
+      </c>
+      <c r="H24">
+        <v>1.472499</v>
+      </c>
+      <c r="I24">
+        <v>0.004317063475432543</v>
+      </c>
+      <c r="J24">
+        <v>0.004317063475432543</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.023043</v>
+      </c>
+      <c r="N24">
+        <v>0.069129</v>
+      </c>
+      <c r="O24">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="P24">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="Q24">
+        <v>0.011310264819</v>
+      </c>
+      <c r="R24">
+        <v>0.101792383371</v>
+      </c>
+      <c r="S24">
+        <v>1.444556811739754E-06</v>
+      </c>
+      <c r="T24">
+        <v>1.444556811739754E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.490833</v>
+      </c>
+      <c r="H25">
+        <v>1.472499</v>
+      </c>
+      <c r="I25">
+        <v>0.004317063475432543</v>
+      </c>
+      <c r="J25">
+        <v>0.004317063475432543</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.04108233333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.123247</v>
+      </c>
+      <c r="O25">
+        <v>0.0005965711874118119</v>
+      </c>
+      <c r="P25">
+        <v>0.000596571187411812</v>
+      </c>
+      <c r="Q25">
+        <v>0.020164564917</v>
+      </c>
+      <c r="R25">
+        <v>0.181481084253</v>
+      </c>
+      <c r="S25">
+        <v>2.575435683670956E-06</v>
+      </c>
+      <c r="T25">
+        <v>2.575435683670956E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.490833</v>
+      </c>
+      <c r="H26">
+        <v>1.472499</v>
+      </c>
+      <c r="I26">
+        <v>0.004317063475432543</v>
+      </c>
+      <c r="J26">
+        <v>0.004317063475432543</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.7928556666666666</v>
+      </c>
+      <c r="N26">
+        <v>2.378567</v>
+      </c>
+      <c r="O26">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="P26">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="Q26">
+        <v>0.389159725437</v>
+      </c>
+      <c r="R26">
+        <v>3.502437528933</v>
+      </c>
+      <c r="S26">
+        <v>4.970381695134304E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.970381695134303E-05</v>
       </c>
     </row>
   </sheetData>
